--- a/taiwan-appliances-20160719/taiwan-appliances-20160719.xlsx
+++ b/taiwan-appliances-20160719/taiwan-appliances-20160719.xlsx
@@ -17,6 +17,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>Cars &amp; Trucks</t>
   </si>
   <si>
@@ -26,9 +29,6 @@
     <t>Computer</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>TV</t>
   </si>
   <si>
@@ -47,10 +47,13 @@
     <t>value</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
     <t>1985</t>
   </si>
   <si>
-    <t>headline</t>
+    <t>Taiwan Vehicles by Household</t>
   </si>
   <si>
     <t>11.91</t>
@@ -71,9 +74,6 @@
     <t>77.84</t>
   </si>
   <si>
-    <t>Taiwan Vehicles by Household</t>
-  </si>
-  <si>
     <t>1986</t>
   </si>
   <si>
@@ -110,36 +110,36 @@
     <t>95.78</t>
   </si>
   <si>
+    <t>28.66</t>
+  </si>
+  <si>
+    <t>81.33</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>19.21</t>
+  </si>
+  <si>
+    <t>75.25</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
-    <t>28.66</t>
+    <t>97.34</t>
+  </si>
+  <si>
+    <t>34.29</t>
   </si>
   <si>
     <t xml:space="preserve">The proportion of households in Taiwan with at least one automobile or motorcycle. </t>
   </si>
   <si>
-    <t>81.33</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>19.21</t>
-  </si>
-  <si>
-    <t>75.25</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>97.34</t>
-  </si>
-  <si>
-    <t>34.29</t>
-  </si>
-  <si>
     <t>83.97</t>
   </si>
   <si>
@@ -233,6 +233,9 @@
     <t>90.38</t>
   </si>
   <si>
+    <t>footnote</t>
+  </si>
+  <si>
     <t>1993</t>
   </si>
   <si>
@@ -245,9 +248,15 @@
     <t>99.25</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>3.2</t>
   </si>
   <si>
+    <t>Republic of China &lt;a href="http://eng.stat.gov.tw/lp.asp?ctNode=2265&amp;CtUnit=1072&amp;BaseDSD=36&amp;mp=5"&gt;National Statistics&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>60.69</t>
   </si>
   <si>
@@ -272,9 +281,6 @@
     <t>4.02</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>64.01</t>
   </si>
   <si>
@@ -299,15 +305,18 @@
     <t>4.21</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>67.08</t>
   </si>
   <si>
+    <t>&lt;a href="http://www.twitter.com/stiles"&gt;Matt Stiles&lt;/a&gt;/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>92.83</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>54.15</t>
   </si>
   <si>
@@ -317,9 +326,6 @@
     <t>51.16</t>
   </si>
   <si>
-    <t>Republic of China &lt;a href="http://eng.stat.gov.tw/lp.asp?ctNode=2265&amp;CtUnit=1072&amp;BaseDSD=36&amp;mp=5"&gt;National Statistics&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>80.82</t>
   </si>
   <si>
@@ -443,9 +449,6 @@
     <t>79.46</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>95.36</t>
   </si>
   <si>
@@ -453,9 +456,6 @@
   </si>
   <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.twitter.com/stiles"&gt;Matt Stiles&lt;/a&gt;/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
     <t>55.63</t>
@@ -861,49 +861,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -913,15 +908,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -933,7 +931,7 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -964,11 +962,11 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -996,11 +994,11 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
+      <c r="A3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1028,10 +1026,10 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1058,11 +1056,11 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>97</v>
+      <c r="A5" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1090,11 +1088,11 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>143</v>
+      <c r="A6" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1408,6 +1406,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1422,14 +1423,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1460,902 +1461,902 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="K11" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="G21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="G26" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="6" t="s">
         <v>266</v>
       </c>
     </row>
